--- a/biology/Médecine/M'hamed_Benredouane/M'hamed_Benredouane.xlsx
+++ b/biology/Médecine/M'hamed_Benredouane/M'hamed_Benredouane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%27hamed_Benredouane</t>
+          <t>M'hamed_Benredouane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M'hamed  Benredouane est un homme politique algérien né le 20 août 1950 à Bouinan (Wilaya de Blida) et mort le 3 août 2020 à Alger[1].
-Il est maître assistant en dermatologie au CHU Mustapha Pacha à Alger[1] et animateur TV de l'émission Avis religieux sur Canal Algérie[réf. nécessaire].
-M'Hamed Benredouane est ministre des Affaires religieuses dans les gouvernements Ghozali I et Ghozali II en 1991-1992. Il est vice-président de la fondation Émir Abdelkader[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M'hamed  Benredouane est un homme politique algérien né le 20 août 1950 à Bouinan (Wilaya de Blida) et mort le 3 août 2020 à Alger.
+Il est maître assistant en dermatologie au CHU Mustapha Pacha à Alger et animateur TV de l'émission Avis religieux sur Canal Algérie[réf. nécessaire].
+M'Hamed Benredouane est ministre des Affaires religieuses dans les gouvernements Ghozali I et Ghozali II en 1991-1992. Il est vice-président de la fondation Émir Abdelkader.
 </t>
         </is>
       </c>
